--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01-2/script/fc_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01-2/script/fc_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,23 +505,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é a finalidade do Anexo de Comunicação Social ao PEECFA?</t>
+          <t>No nível estratégico, quem é o responsável pela aplicação do Processo de Planejamento Estratégico Conjunto (PPEC)?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Orientar as ações de Comunicação Social do Ministério da Defesa e das Forças Armadas por ocasião da Campanha/Operação, conforme o item 1.</t>
+          <t>A aplicação é de responsabilidade do Chefe do Estado-Maior Conjunto das Forças Armadas, conforme o item 2.1.2.1.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág. 121</t>
+          <t>Pág 21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -533,23 +533,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O que deve ser relacionado no item "Condicionantes" do planejamento de Comunicação Social?</t>
+          <t>Qual é o produto final decorrente do Processo de Planejamento Conjunto (PPC) realizado no nível operacional?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>As condicionantes que influenciam o planejamento e o desencadeamento das ações, como diretrizes da ASCOM-MD ou SECOM-PR, conforme o item 3.</t>
+          <t>O produto final é o Plano Operacional do Comando constituído, de acordo com o item 2.1.2.2.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág. 121</t>
+          <t>Pág 21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -561,51 +561,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quais documentos básicos servem de referência para o planejamento das ações de Comunicação Social?</t>
+          <t>No nível tático, qual metodologia de planejamento deve ser utilizada quando as forças componentes forem singulares?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A Política de Comunicação Social de Defesa e as Políticas de Comunicação Social das Forças Singulares (Marinha, Exército e Aeronáutica), conforme os itens 2.1 a 2.4.</t>
+          <t>Devem ser utilizadas as metodologias de planejamento próprias de cada Força Armada, conforme o item 2.1.2.3.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág. 121</t>
+          <t>Pág 21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>172</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>---</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual é o propósito de relacionar os Objetivos Estratégicos no Anexo de Comunicação Social?</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Maximizar as ações do comando operacional na Campanha/Operação, como conscientizar a população e apoiar o processo decisório, conforme o item 5.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág. 122</t>
+          <t>---</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>---</t>
         </is>
       </c>
     </row>
@@ -617,23 +621,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O que as Ações Estratégicas devem fazer em relação aos níveis operacional e tático?</t>
+          <t>Qual é a responsabilidade fundamental do Comandante Operacional (Cmt Op) no contexto do Processo de Planejamento Conjunto?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Devem orientar esses níveis na realização de seus planejamentos e ações, como divulgar a participação das FA e ações dissuasórias, conforme o item 6.</t>
+          <t>Cabe ao Cmt Op a responsabilidade pela obtenção de um Estado Final Desejado (EFD) Operacional, conforme o item 4.1.2.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág. 122</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -645,23 +649,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>O que são as Ideias-Força no contexto do planejamento de Comunicação Social?</t>
+          <t>Como são definidos os riscos operacionais dentro do Gerenciamento do Risco Operacional (GRO) nas Operações Conjuntas?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Conceitos que orientam os níveis operacional e tático, como ressaltar a prontidão das FA para a defesa e segurança nacional, conforme o item 7.</t>
+          <t>São conceituados como uma combinação de probabilidade e gravidade dos potenciais danos ao andamento de uma operação, conforme o item 4.1.4.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág. 122</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -673,23 +677,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>De quem é a prerrogativa para a indicação do porta-voz da Operação?</t>
+          <t>Qual é o produto final do Processo de Planejamento Conjunto (PPC) no nível operacional?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>É prerrogativa do Comandante da Operação, desde que considerada a competência técnica para a comunicação dos fatos, conforme o item 9, alínea "a".</t>
+          <t>O produto final será um Plano Operacional, no qual o Cmt Op estabelecerá prioridades e organizará os meios adjudicados, conforme o item 4.1.5.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág. 123</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -701,23 +705,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Quais princípios devem ser utilizados nas atividades de Comunicação Social?</t>
+          <t>Como as metodologias de planejamento tático de cada Força Componente devem se relacionar com as metodologias dos níveis mais elevados?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pró-atividade, unicidade de discurso, pronta resposta, transparência, acompanhamento, previsibilidade e sincronização, conforme o item 9, alínea "b".</t>
+          <t>Elas devem ser complementares, jamais conflitantes, preenchendo as lacunas existentes para detalhar a execução, conforme o item 4.1.6.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág. 123</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -729,55 +733,51 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qual é a prioridade da comunicação em caso de crises ou catástrofes durante a Campanha?</t>
+          <t>Quais são as características do Processo de Planejamento Conjunto (PPC) quanto à sua aplicação e continuidade?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A comunicação dessas notícias terá prioridade sobre as demais, conforme o item 9, alínea "c".</t>
+          <t>O PPC é flexível, possui natureza cíclica e tem caráter contínuo até que a missão esteja integralmente cumprida, conforme o item 4.1.8.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág. 123</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>O Processo de Planejamento Conjunto (PPC) é exclusivo para situações de guerra?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>Não, com as devidas adaptações, o PPC serve inclusive para o planejamento do emprego do poder militar em situações de não guerra, conforme o item 4.1.10.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -789,23 +789,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No nível estratégico, quem é o responsável pela aplicação do Processo de Planejamento Estratégico Conjunto (PPEC)?</t>
+          <t>Quais são as três etapas que constituem o processo de planejamento para operações conjuntas?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A aplicação é de responsabilidade do Chefe do Estado-Maior Conjunto das Forças Armadas, conforme o item 2.1.2.1.</t>
+          <t>As etapas são: a) Exame de Situação Operacional; b) Elaboração de Planos e Ordens; e c) Controle da Operação Planejada, conforme o item 4.2.1.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -817,23 +817,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Qual é o produto final decorrente do Processo de Planejamento Conjunto (PPC) realizado no nível operacional?</t>
+          <t>O que é definido ao final da Etapa 1 (Exame de Situação Operacional) do planejamento conjunto?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O produto final é o Plano Operacional do Comando constituído, de acordo com o item 2.1.2.2.</t>
+          <t>Chega-se à escolha de uma Linha de Ação (LA) para o cumprimento da missão, caracterizada na Decisão do Comandante, conforme o item 4.2.1.1.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -845,23 +845,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>No nível tático, qual metodologia de planejamento deve ser utilizada quando as forças componentes forem singulares?</t>
+          <t>Qual é o objetivo principal da Etapa 3 (Controle da Operação Planejada) realizada pelo Comandante?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Devem ser utilizadas as metodologias de planejamento próprias de cada Força Armada, conforme o item 2.1.2.3.</t>
+          <t>Verificar se a operação desenvolve-se conforme planejada e se o Estado Final Desejado Operacional está sendo alcançado, introduzindo alterações se necessário, conforme o item 4.2.1.3.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -905,23 +905,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Qual é a responsabilidade fundamental do Comandante Operacional (Cmt Op) no contexto do Processo de Planejamento Conjunto?</t>
+          <t>Quais são as seis fases que constituem o Exame de Situação Operacional (Exm Sit Op)?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cabe ao Cmt Op a responsabilidade pela obtenção de um Estado Final Desejado (EFD) Operacional, conforme o item 4.1.2.</t>
+          <t>Fase 1: Avaliação do Ambiente Operacional e Análise da Missão; Fase 2: A Situação e sua Compreensão; Fase 3: Psb Ini, LA e Confronto; Fase 4: Comparação das LA; Fase 5: Decisão; e Fase 6: Conceito Preliminar da Operação, conforme o item 5.1.1.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág. 35</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -933,23 +933,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Como são definidos os riscos operacionais dentro do Gerenciamento do Risco Operacional (GRO) nas Operações Conjuntas?</t>
+          <t>A quem cabe a coordenação das seções do Estado-Maior Conjunto (EMCj) durante o processo de planejamento?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>São conceituados como uma combinação de probabilidade e gravidade dos potenciais danos ao andamento de uma operação, conforme o item 4.1.4.</t>
+          <t>Caberá ao Chefe do EMCj (Ch EMCj), que orientará quanto à profundidade e objetividade e organizará o cronograma, conforme o item 5.1.3.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág. 35</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -961,23 +961,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Qual é o produto final do Processo de Planejamento Conjunto (PPC) no nível operacional?</t>
+          <t>Qual a diferença de finalidade entre o documento formal "Exame de Situação Operacional" e os "Roteiros de Análise"?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O produto final será um Plano Operacional, no qual o Cmt Op estabelecerá prioridades e organizará os meios adjudicados, conforme o item 4.1.5.</t>
+          <t>O Exame é um documento formal arquivado com o Plano Operacional, enquanto os Roteiros servem apenas como guia de trabalho para as Seções, conforme o item 5.1.4.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág. 35</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -989,23 +989,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Como as metodologias de planejamento tático de cada Força Componente devem se relacionar com as metodologias dos níveis mais elevados?</t>
+          <t>Por que é fundamental a existência de um trabalho de Inteligência prévio ao início efetivo do planejamento?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Elas devem ser complementares, jamais conflitantes, preenchendo as lacunas existentes para detalhar a execução, conforme o item 4.1.6.</t>
+          <t>Sem ele, o Comandante e o EMCj carecerão de dados suficientes para as análises iniciais, conforme o item 5.1.6.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág. 36</t>
+          <t>Pág. 40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -1017,23 +1017,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Quais são as características do Processo de Planejamento Conjunto (PPC) quanto à sua aplicação e continuidade?</t>
+          <t>O que o Cmt Op e seu EMCj devem adquirir antes de tentar solucionar o problema militar?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O PPC é flexível, possui natureza cíclica e tem caráter contínuo até que a missão esteja integralmente cumprida, conforme o item 4.1.8.</t>
+          <t>Uma ideia clara e completa do problema, incluindo compreensão contextual da situação e análise da missão, conforme o item 5.2.1.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág. 36</t>
+          <t>Pág. 40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -1045,23 +1045,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O Processo de Planejamento Conjunto (PPC) é exclusivo para situações de guerra?</t>
+          <t>Quais são as três etapas em que se desenvolve a Fase 1 do Exame de Situação Operacional?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Não, com as devidas adaptações, o PPC serve inclusive para o planejamento do emprego do poder militar em situações de não guerra, conforme o item 4.1.10.</t>
+          <t>1ª Etapa: Avaliação do Ambiente Operacional; 2ª Etapa: Análise da Missão; e 3ª Etapa: Confecção e Emissão da Diretriz de Planejamento, conforme o item 5.2.3.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág. 36</t>
+          <t>Pág. 40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -1073,23 +1073,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Quais são as três etapas que constituem o processo de planejamento para operações conjuntas?</t>
+          <t>O que o Comandante Operacional deve fazer ao analisar documentos oriundos dos níveis político e estratégico para garantir o entendimento das orientações?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>As etapas são: a) Exame de Situação Operacional; b) Elaboração de Planos e Ordens; e c) Controle da Operação Planejada, conforme o item 4.2.1.</t>
+          <t>Estabelecer um diálogo com as lideranças do nível superior para dirimir diferenças de interpretação dos objetivos e meios, conforme o item 5.2.3.3.2.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág. 37</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -1101,23 +1101,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O que é definido ao final da Etapa 1 (Exame de Situação Operacional) do planejamento conjunto?</t>
+          <t>O que a análise da situação atual e da situação desejada busca identificar em relação aos sistemas relevantes?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chega-se à escolha de uma Linha de Ação (LA) para o cumprimento da missão, caracterizada na Decisão do Comandante, conforme o item 4.2.1.1.</t>
+          <t>Comportamentos, tensões, tendências dos atores, impactos potenciais e a compreensão do papel no atingimento do Estado Final Desejado Estratégico, conforme o item 5.2.3.4.2.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág. 37</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -1129,55 +1129,51 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Qual é o objetivo principal da Etapa 3 (Controle da Operação Planejada) realizada pelo Comandante?</t>
+          <t>Quem são considerados "atores" na análise do ambiente operacional?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Verificar se a operação desenvolve-se conforme planejada e se o Estado Final Desejado Operacional está sendo alcançado, introduzindo alterações se necessário, conforme o item 4.2.1.3.</t>
+          <t>Lideranças, governos, grupos paramilitares, coalizões, redes terroristas, organizações criminosas, corporações multinacionais e ONGs, conforme o item 5.2.3.4.3.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág. 37</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>O que deve ser incluído no estudo dos Fatores Políticos durante a análise do ambiente operacional?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>Assuntos internos (estabilidade, alianças, subversão), relações com outros países, direito internacional e aspectos civis/humanitários, conforme o item 5.2.3.4.4.1.a.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -1189,18 +1185,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Quais são as seis fases que constituem o Exame de Situação Operacional (Exm Sit Op)?</t>
+          <t>O que os Fatores Econômicos devem analisar em relação ao esforço de guerra?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fase 1: Avaliação do Ambiente Operacional e Análise da Missão; Fase 2: A Situação e sua Compreensão; Fase 3: Psb Ini, LA e Confronto; Fase 4: Comparação das LA; Fase 5: Decisão; e Fase 6: Conceito Preliminar da Operação, conforme o item 5.1.1.</t>
+          <t>A qualidade, organização e capacidade de mobilização econômica, especialmente da indústria, e a disponibilidade de recursos na área, conforme o item 5.2.3.4.4.1.b.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág. 39</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1217,18 +1213,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A quem cabe a coordenação das seções do Estado-Maior Conjunto (EMCj) durante o processo de planejamento?</t>
+          <t>Por que deve ser dada especial atenção às operações psicológicas na análise dos Fatores Psicossociais?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Caberá ao Chefe do EMCj (Ch EMCj), que orientará quanto à profundidade e objetividade e organizará o cronograma, conforme o item 5.1.3.</t>
+          <t>Porque necessitam ser implementadas com a devida antecedência em relação ao início efetivo das operações para serem eficazes, conforme o item 5.2.3.4.4.1.c.2.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág. 39</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1245,18 +1241,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Qual a diferença de finalidade entre o documento formal "Exame de Situação Operacional" e os "Roteiros de Análise"?</t>
+          <t>Qual ferramenta gráfica é recomendada para facilitar o entendimento da situação atual e desejada baseada na inferência lógica?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O Exame é um documento formal arquivado com o Plano Operacional, enquanto os Roteiros servem apenas como guia de trabalho para as Seções, conforme o item 5.1.4.</t>
+          <t>O Diagrama de Relações, conforme o item 5.2.3.4.5.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pág. 39</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1273,18 +1269,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Por que é fundamental a existência de um trabalho de Inteligência prévio ao início efetivo do planejamento?</t>
+          <t>O que define uma "situação desejada" no contexto operacional?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sem ele, o Comandante e o EMCj carecerão de dados suficientes para as análises iniciais, conforme o item 5.1.6.</t>
+          <t>É um estado futuro a ser buscado no ambiente operacional com o intuito de modificar atitudes, ações e relações dos atores envolvidos, conforme o item 5.2.3.4.8.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pág. 40</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1301,18 +1297,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>O que o Cmt Op e seu EMCj devem adquirir antes de tentar solucionar o problema militar?</t>
+          <t>O que é o Estado Final Desejado Operacional (EFD Op)?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Uma ideia clara e completa do problema, incluindo compreensão contextual da situação e análise da missão, conforme o item 5.2.1.</t>
+          <t>Descrição sucinta das condições que, uma vez alcançadas, permitirão ao Cmt Op assumir que a missão foi cumprida, conforme o item 5.2.3.5.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pág. 40</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1329,18 +1325,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Quais são as três etapas em que se desenvolve a Fase 1 do Exame de Situação Operacional?</t>
+          <t>Como é definido um "problema" no contexto das operações militares?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1ª Etapa: Avaliação do Ambiente Operacional; 2ª Etapa: Análise da Missão; e 3ª Etapa: Confecção e Emissão da Diretriz de Planejamento, conforme o item 5.2.3.</t>
+          <t>A condição ou conjunto de condições que impede ou dificulta o Cmt Op de atingir seu EFD Op, conforme o item 5.2.3.6.1.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pág. 40</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1357,18 +1353,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>O que o Comandante Operacional deve fazer ao analisar documentos oriundos dos níveis político e estratégico para garantir o entendimento das orientações?</t>
+          <t>Quais são as duas questões básicas para a formulação do problema militar?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Estabelecer um diálogo com as lideranças do nível superior para dirimir diferenças de interpretação dos objetivos e meios, conforme o item 5.2.3.3.2.</t>
+          <t>"Qual a diferença entre a situação atual e a situação desejada?" e "o que está impedindo que se atinja o EFD Op?", conforme o item 5.2.3.6.4.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pág. 41</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1385,18 +1381,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>O que a análise da situação atual e da situação desejada busca identificar em relação aos sistemas relevantes?</t>
+          <t>O que são Objetivos Operacionais e qual sua relação com o EFD Op?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Comportamentos, tensões, tendências dos atores, impactos potenciais e a compreensão do papel no atingimento do Estado Final Desejado Estratégico, conforme o item 5.2.3.4.2.</t>
+          <t>São metas para as quais concorrem as ações e que, somente quando alcançados coletivamente, representam o EFD Op, conforme o item 5.2.3.7.1.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pág. 41</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1413,18 +1409,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Quem são considerados "atores" na análise do ambiente operacional?</t>
+          <t>O que constitui, junto com o EFD Op e Objetivos Operacionais, um dos elementos balizadores para a decisão?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lideranças, governos, grupos paramilitares, coalizões, redes terroristas, organizações criminosas, corporações multinacionais e ONGs, conforme o item 5.2.3.4.3.</t>
+          <t>A missão, sendo o ponto de partida para o desencadeamento de uma operação militar, conforme o item 5.2.4.1.1.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pág. 41</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1441,18 +1437,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>O que deve ser incluído no estudo dos Fatores Políticos durante a análise do ambiente operacional?</t>
+          <t>Como deve ser estruturado o enunciado da missão pelo Comandante Operacional?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Assuntos internos (estabilidade, alianças, subversão), relações com outros países, direito internacional e aspectos civis/humanitários, conforme o item 5.2.3.4.4.1.a.</t>
+          <t>Discriminando a(s) tarefa(s) mais o(s) propósito(s), nessa ordem, unidos pela expressão “a fim de”, conforme o item 5.2.4.2.1.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pág. 42</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1469,18 +1465,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>O que os Fatores Econômicos devem analisar em relação ao esforço de guerra?</t>
+          <t>Quais aspectos do inimigo devem ser analisados antes de enunciar a missão?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A qualidade, organização e capacidade de mobilização econômica, especialmente da indústria, e a disponibilidade de recursos na área, conforme o item 5.2.3.4.4.1.b.</t>
+          <t>Doutrina de emprego, ordem de batalha, valor, mobilidade estratégica, capacidade logística e de mobilização, conforme o item 5.2.4.2.2.a.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pág. 42</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1497,18 +1493,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Por que deve ser dada especial atenção às operações psicológicas na análise dos Fatores Psicossociais?</t>
+          <t>O que o Comandante Operacional deve examinar ao analisar a própria missão?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Porque necessitam ser implementadas com a devida antecedência em relação ao início efetivo das operações para serem eficazes, conforme o item 5.2.3.4.4.1.c.2.</t>
+          <t>Como o cumprimento contribuirá para o EFD do escalão superior e a relação com as missões de outros comandos, conforme o item 5.2.4.3.a e b.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pág. 42</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1525,18 +1521,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Qual ferramenta gráfica é recomendada para facilitar o entendimento da situação atual e desejada baseada na inferência lógica?</t>
+          <t>O que é uma "Premissa Básica" (PB) no planejamento?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O Diagrama de Relações, conforme o item 5.2.3.4.5.</t>
+          <t>Uma suposição sobre a situação ou futuro que substitui informações não disponíveis, implicando em planejamento contingente caso não se confirme, conforme o item 5.2.4.3.c.1.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pág. 43</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1553,18 +1549,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>O que define uma "situação desejada" no contexto operacional?</t>
+          <t>Como se verifica a validade de uma Premissa Básica?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>É um estado futuro a ser buscado no ambiente operacional com o intuito de modificar atitudes, ações e relações dos atores envolvidos, conforme o item 5.2.3.4.8.</t>
+          <t>Perguntando se o plano teria sucesso caso a PB não se concretizasse; se sim, ela não é válida e deve ser abandonada, conforme o item 5.2.4.3.c.4.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pág. 43</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1581,18 +1577,18 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>O que é o Estado Final Desejado Operacional (EFD Op)?</t>
+          <t>O que são "limitações ao planejamento" identificadas no exame de situação?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Descrição sucinta das condições que, uma vez alcançadas, permitirão ao Cmt Op assumir que a missão foi cumprida, conforme o item 5.2.3.5.</t>
+          <t>Condicionantes impostas pelo nível superior que abarcam "o que não pode ser feito" e "o que deve ser feito", conforme o item 5.2.4.4.1.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pág. 43</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1609,18 +1605,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Como é definido um "problema" no contexto das operações militares?</t>
+          <t>Qual o papel da Diretriz de Planejamento (DIPLAN) no processo?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A condição ou conjunto de condições que impede ou dificulta o Cmt Op de atingir seu EFD Op, conforme o item 5.2.3.6.1.</t>
+          <t>Desencadear todo o trabalho do EM para a solução do problema, transmitindo orientações iniciais do Comandante, conforme o item 5.2.5.2.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pág. 44</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1637,18 +1633,18 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Quais são as duas questões básicas para a formulação do problema militar?</t>
+          <t>O que deve constar na DIPLAN em relação aos oponentes?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Qual a diferença entre a situação atual e a situação desejada?" e "o que está impedindo que se atinja o EFD Op?", conforme o item 5.2.3.6.4.</t>
+          <t>O poder relativo de combate do(s) oponente(s), com base na solicitação inicial dos meios a serem adjudicados, conforme o item 5.2.5.2.g.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pág. 44</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1665,18 +1661,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>O que são Objetivos Operacionais e qual sua relação com o EFD Op?</t>
+          <t>O que caracteriza a conclusão da fase de avaliação do ambiente operacional e análise da missão?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>São metas para as quais concorrem as ações e que, somente quando alcançados coletivamente, representam o EFD Op, conforme o item 5.2.3.7.1.</t>
+          <t>A emissão, por parte do Comandante, da DIPLAN, conforme o item 5.2.5.3.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pág. 44</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1693,18 +1689,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>O que constitui, junto com o EFD Op e Objetivos Operacionais, um dos elementos balizadores para a decisão?</t>
+          <t>O que é analisado na Fase 2 do Exm Sit Op (A Situação e sua Compreensão)?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A missão, sendo o ponto de partida para o desencadeamento de uma operação militar, conforme o item 5.2.4.1.1.</t>
+          <t>Dados relativos aos fatores operacionais espaço, tempo e força, abrangendo área, inimigo, próprias forças e comparação de poderes, conforme o item 5.3.1.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pág. 45</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1721,18 +1717,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Como deve ser estruturado o enunciado da missão pelo Comandante Operacional?</t>
+          <t>Quais são os quatro preceitos do método cartesiano utilizados para definir Fatores de Força e Fraqueza?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Discriminando a(s) tarefa(s) mais o(s) propósito(s), nessa ordem, unidos pela expressão “a fim de”, conforme o item 5.2.4.2.1.</t>
+          <t>Evidência, análise, enumeração e síntese, conforme o item 5.3.3.2.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Pág. 45</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1749,18 +1745,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Quais aspectos do inimigo devem ser analisados antes de enunciar a missão?</t>
+          <t>O que é a Abordagem Operacional?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Doutrina de emprego, ordem de batalha, valor, mobilidade estratégica, capacidade logística e de mobilização, conforme o item 5.2.4.2.2.a.</t>
+          <t>Processo onde o Comandante usa a Arte Operacional para conceber uma ideia geral sobre “o que deve ser feito” para chegar ao EFD Op, conforme o item 5.3.3.3.2.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pág. 45</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1777,18 +1773,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>O que o Comandante Operacional deve examinar ao analisar a própria missão?</t>
+          <t>Quais aspectos da hidrografia são essenciais em operações anfíbias?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Como o cumprimento contribuirá para o EFD do escalão superior e a relação com as missões de outros comandos, conforme o item 5.2.4.3.a e b.</t>
+          <t>Gradientes, correntes, marés e obstruções naturais ou construídas que influenciam a aproximação das praias, conforme o item 5.3.4.1.a.2.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pág. 46</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1805,18 +1801,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>O que é uma "Premissa Básica" (PB) no planejamento?</t>
+          <t>Por que as condições sonar devem ser investigadas cuidadosamente?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Uma suposição sobre a situação ou futuro que substitui informações não disponíveis, implicando em planejamento contingente caso não se confirme, conforme o item 5.2.4.3.c.1.</t>
+          <t>Porque uma condição pode ser vantajosa para submarinos e desvantajosa para superfície, influenciando o planejamento e rotas, conforme o item 5.3.4.1.a.4.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pág. 46</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1833,18 +1829,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Como se verifica a validade de uma Premissa Básica?</t>
+          <t>O que deve ser ressaltado no estudo dos aspectos geográficos do terreno?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Perguntando se o plano teria sucesso caso a PB não se concretizasse; se sim, ela não é válida e deve ser abandonada, conforme o item 5.2.4.3.c.4.</t>
+          <t>Obstáculos de vulto, áreas de ocultação, acidentes notáveis e faixas que configurem direções estratégicas ou táticas, conforme o item 5.3.4.1.b.1.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pág. 46</t>
+          <t>Pág. 50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1861,18 +1857,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>O que são "limitações ao planejamento" identificadas no exame de situação?</t>
+          <t>Como o clima e a meteorologia podem afetar os meios que exploram o espectro eletromagnético?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Condicionantes impostas pelo nível superior que abarcam "o que não pode ser feito" e "o que deve ser feito", conforme o item 5.2.4.4.1.</t>
+          <t>Podem afetar tanto o sensoriamento quanto o comando e controle, além da mobilidade, conforme o item 5.3.4.1.c.2.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pág. 47</t>
+          <t>Pág. 50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1889,18 +1885,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Qual o papel da Diretriz de Planejamento (DIPLAN) no processo?</t>
+          <t>Por que a influência dos obstáculos terrestres deve ser analisada em relação aos radares?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Desencadear todo o trabalho do EM para a solução do problema, transmitindo orientações iniciais do Comandante, conforme o item 5.2.5.2.</t>
+          <t>Para verificar o emprego adequado de radares convenientes diante da topografia, conforme o item 5.3.4.1.b.2.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pág. 47</t>
+          <t>Pág. 50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1917,18 +1913,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>O que deve constar na DIPLAN em relação aos oponentes?</t>
+          <t>O que são considerados pontos de importância operacional de natureza estática?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>O poder relativo de combate do(s) oponente(s), com base na solicitação inicial dos meios a serem adjudicados, conforme o item 5.2.5.2.g.</t>
+          <t>Instalações fabris, usinas, bases navais/aéreas, centros de C2, instalações de radar e mísseis, conforme o item 5.3.4.1.e.2.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pág. 47</t>
+          <t>Pág. 51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1945,18 +1941,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>O que caracteriza a conclusão da fase de avaliação do ambiente operacional e análise da missão?</t>
+          <t>O que deve ser incluído na análise do "Terreno Humano"?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A emissão, por parte do Comandante, da DIPLAN, conforme o item 5.2.5.3.</t>
+          <t>Aspectos culturais, valores, crenças e interesses da população e seus reflexos para as operações, conforme o item 5.3.4.1.k.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pág. 48</t>
+          <t>Pág. 51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1973,18 +1969,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O que é analisado na Fase 2 do Exm Sit Op (A Situação e sua Compreensão)?</t>
+          <t>O que deve ser estudado em relação às linhas de transporte e suprimento?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dados relativos aos fatores operacionais espaço, tempo e força, abrangendo área, inimigo, próprias forças e comparação de poderes, conforme o item 5.3.1.</t>
+          <t>As rotas existentes (marítimas, terrestres e aéreas), pontos focais, entroncamentos, pontes e passagens restritas, conforme o item 5.3.4.1.f.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Pág. 48</t>
+          <t>Pág. 51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2001,18 +1997,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Quais são os quatro preceitos do método cartesiano utilizados para definir Fatores de Força e Fraqueza?</t>
+          <t>Quais aspectos das Forças Inimigas devem ser ressaltados no estudo da Fase 2?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Evidência, análise, enumeração e síntese, conforme o item 5.3.3.2.</t>
+          <t>Doutrina, nível de treinamento, ordem de batalha atualizada, mobilidade estratégica e sistemas de mobilização, conforme o item 5.3.5.1.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pág. 48</t>
+          <t>Pág. 52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2029,18 +2025,18 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>O que é a Abordagem Operacional?</t>
+          <t>O que deve ser avaliado na composição das "Nossas Forças"?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Processo onde o Comandante usa a Arte Operacional para conceber uma ideia geral sobre “o que deve ser feito” para chegar ao EFD Op, conforme o item 5.3.3.3.2.</t>
+          <t>A situação operacional das forças adjudicadas (pessoal e equipamento) e forças a serem recebidas posteriormente, conforme o item 5.3.6.1.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pág. 49</t>
+          <t>Pág. 52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2057,18 +2053,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Quais aspectos da hidrografia são essenciais em operações anfíbias?</t>
+          <t>O que são "Forças Amigas" no contexto do exame de situação?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gradientes, correntes, marés e obstruções naturais ou construídas que influenciam a aproximação das praias, conforme o item 5.3.4.1.a.2.</t>
+          <t>Forças não orgânicas do Comando Operacional que possam interferir, prover ou necessitar de apoio ou coordenação, conforme o item 5.3.7.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Pág. 49</t>
+          <t>Pág. 52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2085,18 +2081,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Por que as condições sonar devem ser investigadas cuidadosamente?</t>
+          <t>Em que consiste a Comparação de Poderes de Combate (CPC)?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Porque uma condição pode ser vantajosa para submarinos e desvantajosa para superfície, influenciando o planejamento e rotas, conforme o item 5.3.4.1.a.4.</t>
+          <t>No estudo comparativo da composição e características orgânicas das forças em oposição e elementos de apoio, conforme o item 5.3.8.1.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pág. 49</t>
+          <t>Pág. 53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2113,18 +2109,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>O que deve ser ressaltado no estudo dos aspectos geográficos do terreno?</t>
+          <t>Qual deve ser o foco principal da CPC no nível operacional?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Obstáculos de vulto, áreas de ocultação, acidentes notáveis e faixas que configurem direções estratégicas ou táticas, conforme o item 5.3.4.1.b.1.</t>
+          <t>A comparação entre “capacidades antagônicas” (ex: poder aéreo vs defesa antiaérea) e não apenas sistemas isolados, conforme o item 5.3.8.3.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pág. 50</t>
+          <t>Pág. 53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2141,18 +2137,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Como o clima e a meteorologia podem afetar os meios que exploram o espectro eletromagnético?</t>
+          <t>Como é avaliada a eficiência do pessoal em combate?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Podem afetar tanto o sensoriamento quanto o comando e controle, além da mobilidade, conforme o item 5.3.4.1.c.2.</t>
+          <t>Pelas características nacionais, experiências em combate, moral, adestramento e adaptabilidade à área, conforme o item 5.3.8.4.a.4.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pág. 50</t>
+          <t>Pág. 53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2169,18 +2165,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Por que a influência dos obstáculos terrestres deve ser analisada em relação aos radares?</t>
+          <t>Quais são os principais parâmetros para a confrontação de Comando e Controle (C2)?</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Para verificar o emprego adequado de radares convenientes diante da topografia, conforme o item 5.3.4.1.b.2.</t>
+          <t>Condições de comando, sistemas de sensores, comunicações/TI, guerra eletrônica, apoio à decisão e recursos cibernéticos, conforme o item 5.3.8.4.b.1.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Pág. 50</t>
+          <t>Pág. 54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2197,18 +2193,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>O que são considerados pontos de importância operacional de natureza estática?</t>
+          <t>Como se diferencia a análise logística das demais comparações de poder de combate?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Instalações fabris, usinas, bases navais/aéreas, centros de C2, instalações de radar e mísseis, conforme o item 5.3.4.1.e.2.</t>
+          <t>Não compara capacidades, mas levanta capacidades frente às necessidades, buscando vulnerabilidades do oponente e carências próprias, conforme o item 5.3.8.4.c.1.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Pág. 51</t>
+          <t>Pág. 54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2225,18 +2221,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>O que deve ser incluído na análise do "Terreno Humano"?</t>
+          <t>Quais aspectos logísticos específicos podem ser parâmetros de levantamento de capacidades?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Aspectos culturais, valores, crenças e interesses da população e seus reflexos para as operações, conforme o item 5.3.4.1.k.</t>
+          <t>Extensão das linhas de transporte, capacidade de reabastecimento e disponibilidade de recursos locais, conforme o item 5.3.8.4.c.2.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pág. 51</t>
+          <t>Pág. 54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2253,18 +2249,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>O que deve ser estudado em relação às linhas de transporte e suprimento?</t>
+          <t>Por que os fatores de tempo e distância são importantes no planejamento?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>As rotas existentes (marítimas, terrestres e aéreas), pontos focais, entroncamentos, pontes e passagens restritas, conforme o item 5.3.4.1.f.</t>
+          <t>Porque afetam a praticabilidade das possibilidades do inimigo e das linhas de ação, sendo aspectos dinâmicos da situação, conforme o item 5.3.8.4.d.2.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pág. 51</t>
+          <t>Pág. 55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2281,18 +2277,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Quais aspectos das Forças Inimigas devem ser ressaltados no estudo da Fase 2?</t>
+          <t>O que deve ser analisado quanto à mobilização em relação ao tempo?</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Doutrina, nível de treinamento, ordem de batalha atualizada, mobilidade estratégica e sistemas de mobilização, conforme o item 5.3.5.1.</t>
+          <t>A linha do tempo para mobilização de pessoal e meios considerando posições relativas favoráveis, conforme o item 5.3.8.4.d.3.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Pág. 52</t>
+          <t>Pág. 55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2309,18 +2305,18 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>O que deve ser avaliado na composição das "Nossas Forças"?</t>
+          <t>Como devem ser sintetizados os Fatores de Força e Fraqueza (FFF)?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A situação operacional das forças adjudicadas (pessoal e equipamento) e forças a serem recebidas posteriormente, conforme o item 5.3.6.1.</t>
+          <t>Considerando fatos e conclusões da área e poderes combatentes, de forma objetiva e resumida para cada força, conforme o item 5.3.9.1.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pág. 52</t>
+          <t>Pág. 55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2337,18 +2333,18 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>O que são "Forças Amigas" no contexto do exame de situação?</t>
+          <t>O que permite a Abordagem Operacional ao Comandante?</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Forças não orgânicas do Comando Operacional que possam interferir, prover ou necessitar de apoio ou coordenação, conforme o item 5.3.7.</t>
+          <t>Fazer um enquadramento do problema, buscando moldar o ambiente operacional a seu favor por meio de ações/efeitos, conforme o item 5.3.10.2.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Pág. 52</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2365,18 +2361,18 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Em que consiste a Comparação de Poderes de Combate (CPC)?</t>
+          <t>Quais são os propósitos do Desenho Operacional?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>No estudo comparativo da composição e características orgânicas das forças em oposição e elementos de apoio, conforme o item 5.3.8.1.</t>
+          <t>Comunicar a visão do Cmt, sincronizar a operação, guiar as LA e avaliar o progresso da campanha, conforme o item 5.3.10.5.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Pág. 53</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2393,18 +2389,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Qual deve ser o foco principal da CPC no nível operacional?</t>
+          <t>O que deve conter a Intenção do Comandante após definido o Desenho Operacional?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A comparação entre “capacidades antagônicas” (ex: poder aéreo vs defesa antiaérea) e não apenas sistemas isolados, conforme o item 5.3.8.3.</t>
+          <t>Análise sucinta do problema, abordagem dos centros de gravidade e, se for o caso, Princípios de Guerra, conforme o item 5.3.11.2.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pág. 53</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2421,18 +2417,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Como é avaliada a eficiência do pessoal em combate?</t>
+          <t>Qual a diferença entre Elementos Essenciais de Inteligência (EEI) e Outras Necessidades de Inteligência (ONI)?</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pelas características nacionais, experiências em combate, moral, adestramento e adaptabilidade à área, conforme o item 5.3.8.4.a.4.</t>
+          <t>EEI são necessários ao prosseguimento do planejamento; ONI melhoram a consciência situacional, mas não impedem o planejamento, conforme o item 5.3.12.1.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Pág. 53</t>
+          <t>Pág. 57</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2449,18 +2445,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Quais são os principais parâmetros para a confrontação de Comando e Controle (C2)?</t>
+          <t>O que o Comandante deve identificar e confrontar na Fase 3 do Exame?</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Condições de comando, sistemas de sensores, comunicações/TI, guerra eletrônica, apoio à decisão e recursos cibernéticos, conforme o item 5.3.8.4.b.1.</t>
+          <t>As Possibilidades do Inimigo (Psb Ini) e as próprias Linhas de Ação (LA), analisadas como em um jogo da guerra, conforme o item 5.4.1.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Pág. 54</t>
+          <t>Pág. 57</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2477,18 +2473,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Como se diferencia a análise logística das demais comparações de poder de combate?</t>
+          <t>Quais requisitos definem uma Possibilidade do Inimigo (Psb Ini)?</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Não compara capacidades, mas levanta capacidades frente às necessidades, buscando vulnerabilidades do oponente e carências próprias, conforme o item 5.3.8.4.c.1.</t>
+          <t>Ser compatível com os meios disponíveis dele e ser capaz de interferir ou afetar o cumprimento da Missão do Comandante, conforme o item 5.4.2.1.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Pág. 54</t>
+          <t>Pág. 57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2505,18 +2501,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Quais aspectos logísticos específicos podem ser parâmetros de levantamento de capacidades?</t>
+          <t>Qual o pressuposto para iniciar o trabalho das Psb Ini na ausência de dados assertivos?</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Extensão das linhas de transporte, capacidade de reabastecimento e disponibilidade de recursos locais, conforme o item 5.3.8.4.c.2.</t>
+          <t>Levar em consideração que o EFD Op do inimigo será o oposto ao EFD Op a ser obtido por nossas forças, conforme o item 5.4.2.3.1.a.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Pág. 54</t>
+          <t>Pág. 58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2533,18 +2529,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Por que os fatores de tempo e distância são importantes no planejamento?</t>
+          <t>Por que o Comandante não deve rejeitar uma Psb Ini baseando-se apenas na improbabilidade?</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Porque afetam a praticabilidade das possibilidades do inimigo e das linhas de ação, sendo aspectos dinâmicos da situação, conforme o item 5.3.8.4.d.2.</t>
+          <t>Porque raciocinar sobre intenções pode levar à surpresa caso o inimigo escolha tal possibilidade deliberadamente, conforme o item 5.4.2.3.3.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Pág. 55</t>
+          <t>Pág. 58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2561,18 +2557,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>O que deve ser analisado quanto à mobilização em relação ao tempo?</t>
+          <t>Quais fatores o Comandante utiliza para graduar as Psb Ini quanto à probabilidade?</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A linha do tempo para mobilização de pessoal e meios considerando posições relativas favoráveis, conforme o item 5.3.8.4.d.3.</t>
+          <t>Maiores vantagens com menores riscos, aproveitamento do terreno/vulnerabilidades e ações atuais do inimigo, conforme o item 5.4.2.4.1.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Pág. 55</t>
+          <t>Pág. 58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2589,18 +2585,18 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Como devem ser sintetizados os Fatores de Força e Fraqueza (FFF)?</t>
+          <t>O que é uma Linha de Ação (LA) no planejamento conjunto?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Considerando fatos e conclusões da área e poderes combatentes, de forma objetiva e resumida para cada força, conforme o item 5.3.9.1.</t>
+          <t>Conjunto de ações que possibilita o cumprimento da Missão, visualizando o emprego da força como um todo, conforme o item 5.4.3.1.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Pág. 55</t>
+          <t>Pág. 59</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2617,18 +2613,18 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>O que permite a Abordagem Operacional ao Comandante?</t>
+          <t>O que é um "efeito" na elaboração das Linhas de Ação?</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Fazer um enquadramento do problema, buscando moldar o ambiente operacional a seu favor por meio de ações/efeitos, conforme o item 5.3.10.2.</t>
+          <t>Alteração no estado de um sistema resultante de ações que contribui para atingir um Ponto Decisivo, devendo ser mensurável, conforme o item 5.4.3.3.3.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Pág. 56</t>
+          <t>Pág. 59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2645,18 +2641,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Quais são os propósitos do Desenho Operacional?</t>
+          <t>Como deve ser a relação entre Pontos Decisivos (PD), Efeitos e Ações na formulação das LA?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Comunicar a visão do Cmt, sincronizar a operação, guiar as LA e avaliar o progresso da campanha, conforme o item 5.3.10.5.</t>
+          <t>Para cada PD, identificam-se efeitos e ações correspondentes (brainstorm), verificando atuação sobre CG/VC, conforme o item 5.4.3.3.5.a e b.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Pág. 56</t>
+          <t>Pág. 59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2673,18 +2669,18 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>O que deve conter a Intenção do Comandante após definido o Desenho Operacional?</t>
+          <t>O que define uma "ação" no nível operacional?</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Análise sucinta do problema, abordagem dos centros de gravidade e, se for o caso, Princípios de Guerra, conforme o item 5.3.11.2.</t>
+          <t>O ato de realizar tarefa(s) que contribuem para um efeito, podendo ser cinéticas ou não cinéticas, escritas no infinitivo, conforme o item 5.4.3.3.4.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Pág. 56</t>
+          <t>Pág. 60</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2701,18 +2697,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Qual a diferença entre Elementos Essenciais de Inteligência (EEI) e Outras Necessidades de Inteligência (ONI)?</t>
+          <t>O que é o Conceito Sumário de uma LA e como ele é elaborado?</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EEI são necessários ao prosseguimento do planejamento; ONI melhoram a consciência situacional, mas não impedem o planejamento, conforme o item 5.3.12.1.</t>
+          <t>É uma ideia de manobra genérica elaborada por meio da análise de Requisitos (categorias genéricas de ações), conforme o item 5.4.3.5.1 e 5.4.3.5.2.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Pág. 57</t>
+          <t>Pág. 60</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2729,18 +2725,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>O que o Comandante deve identificar e confrontar na Fase 3 do Exame?</t>
+          <t>O que são os "Requisitos" considerados no Conceito Sumário?</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>As Possibilidades do Inimigo (Psb Ini) e as próprias Linhas de Ação (LA), analisadas como em um jogo da guerra, conforme o item 5.4.1.</t>
+          <t>Aspectos ofensivos, defensivos, de apoio, inteligência, logística, C2, adestramento, etc., que devem ser atendidos pela LA, conforme o item 5.4.3.5.3.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Pág. 57</t>
+          <t>Pág. 60</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2757,18 +2753,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Quais requisitos definem uma Possibilidade do Inimigo (Psb Ini)?</t>
+          <t>Quais são as provas básicas da Prova Preliminar de Adequabilidade, Praticabilidade e Aceitabilidade (APA)?</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ser compatível com os meios disponíveis dele e ser capaz de interferir ou afetar o cumprimento da Missão do Comandante, conforme o item 5.4.2.1.</t>
+          <t>Adequabilidade (cumpre missão/EFD Op), Praticabilidade (implementável com meios disponíveis) e Aceitabilidade (resultados compensam riscos), conforme o item 5.4.3.6.1.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Pág. 57</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2785,18 +2781,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Qual o pressuposto para iniciar o trabalho das Psb Ini na ausência de dados assertivos?</t>
+          <t>Quando uma LA é considerada "adequada"?</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Levar em consideração que o EFD Op do inimigo será o oposto ao EFD Op a ser obtido por nossas forças, conforme o item 5.4.2.3.1.a.</t>
+          <t>Se puder cumprir a Missão e atingir o EFD Operacional, produzindo efeito compatível com a Abordagem Operacional, conforme o item 5.4.3.6.2.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Pág. 58</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2813,18 +2809,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Por que o Comandante não deve rejeitar uma Psb Ini baseando-se apenas na improbabilidade?</t>
+          <t>Quando uma LA é considerada "praticável"?</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Porque raciocinar sobre intenções pode levar à surpresa caso o inimigo escolha tal possibilidade deliberadamente, conforme o item 5.4.2.3.3.</t>
+          <t>Se puder ser implementada com as forças, apoio e tecnologia disponíveis, considerando oposição e óbices, conforme o item 5.4.3.6.5.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Pág. 58</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2841,18 +2837,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Quais fatores o Comandante utiliza para graduar as Psb Ini quanto à probabilidade?</t>
+          <t>Quando uma LA é considerada "aceitável"?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Maiores vantagens com menores riscos, aproveitamento do terreno/vulnerabilidades e ações atuais do inimigo, conforme o item 5.4.2.4.1.</t>
+          <t>Se os prováveis resultados compensarem os riscos e custos estimados (pessoal, material, tempo e posição), conforme o item 5.4.3.6.6.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Pág. 58</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2869,18 +2865,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>O que é uma Linha de Ação (LA) no planejamento conjunto?</t>
+          <t>Como são formados os partidos para a realização do Confronto?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Conjunto de ações que possibilita o cumprimento da Missão, visualizando o emprego da força como um todo, conforme o item 5.4.3.1.</t>
+          <t>Um partido responsável pelas próprias LA (Seção de Operações D-3) e um pelas Psb Ini (Seção de Inteligência D-2), conforme o item 5.4.4.3.1.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Pág. 59</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2897,18 +2893,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>O que é um "efeito" na elaboração das Linhas de Ação?</t>
+          <t>Qual o papel do partido responsável pelas Psb Ini durante o Confronto?</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Alteração no estado de um sistema resultante de ações que contribui para atingir um Ponto Decisivo, devendo ser mensurável, conforme o item 5.4.3.3.3.</t>
+          <t>Desafiar a LA proposta buscando identificar fraquezas e vulnerabilidades para torná-la mais forte, conforme o item 5.4.4.3.2.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Pág. 59</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2925,18 +2921,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Como deve ser a relação entre Pontos Decisivos (PD), Efeitos e Ações na formulação das LA?</t>
+          <t>Quem exerce a função de Árbitro no Confronto e qual sua responsabilidade?</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Para cada PD, identificam-se efeitos e ações correspondentes (brainstorm), verificando atuação sobre CG/VC, conforme o item 5.4.3.3.5.a e b.</t>
+          <t>O Comandante ou ChEMCj/delegado, que decide sobre aperfeiçoamentos na LA em função das conclusões, conforme o item 5.4.4.3.3.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Pág. 59</t>
+          <t>Pág. 63</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -2953,18 +2949,18 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>O que define uma "ação" no nível operacional?</t>
+          <t>O que fazer se houver limitação de tempo para realizar o Confronto de todas as LA?</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>O ato de realizar tarefa(s) que contribuem para um efeito, podendo ser cinéticas ou não cinéticas, escritas no infinitivo, conforme o item 5.4.3.3.4.</t>
+          <t>O EMCj deve confrontar cada LA, no mínimo, contra a Psb Ini mais perigosa e a Psb Ini mais provável, conforme o item 5.4.4.3.7.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Pág. 60</t>
+          <t>Pág. 63</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -2981,18 +2977,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>O que é o Conceito Sumário de uma LA e como ele é elaborado?</t>
+          <t>Quem define o método do Confronto (sequencial, por fases, eventos críticos)?</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>É uma ideia de manobra genérica elaborada por meio da análise de Requisitos (categorias genéricas de ações), conforme o item 5.4.3.5.1 e 5.4.3.5.2.</t>
+          <t>O Coordenador do Confronto (ChEMCj ou oficial indicado), conforme o item 5.4.4.4.4.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Pág. 60</t>
+          <t>Pág. 63</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3009,18 +3005,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>O que são os "Requisitos" considerados no Conceito Sumário?</t>
+          <t>Qual a dinâmica de movimentos observada no processo interativo entre LA e Psb Ini?</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Aspectos ofensivos, defensivos, de apoio, inteligência, logística, C2, adestramento, etc., que devem ser atendidos pela LA, conforme o item 5.4.3.5.3.</t>
+          <t>Possui três movimentos: AÇÃO, REAÇÃO e CONTRARREAÇÃO, conforme o item 5.4.4.4.6.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Pág. 60</t>
+          <t>Pág. 64</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3037,18 +3033,18 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Quais são as provas básicas da Prova Preliminar de Adequabilidade, Praticabilidade e Aceitabilidade (APA)?</t>
+          <t>A que deve se restringir a análise de cada interação LA x Psb Ini no confronto?</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Adequabilidade (cumpre missão/EFD Op), Praticabilidade (implementável com meios disponíveis) e Aceitabilidade (resultados compensam riscos), conforme o item 5.4.3.6.1.</t>
+          <t>Apenas às ações que de fato se oponham (ex: defesa própria x ofensiva inimiga), conforme o item 5.4.4.4.8.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Pág. 61</t>
+          <t>Pág. 64</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3065,18 +3061,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Quando uma LA é considerada "adequada"?</t>
+          <t>Qual erro comum deve ser evitado ao analisar o confronto de ações entre Forças Componentes?</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Se puder cumprir a Missão e atingir o EFD Operacional, produzindo efeito compatível com a Abordagem Operacional, conforme o item 5.4.3.6.2.</t>
+          <t>Limitar a análise a forças singulares (FNC x FNC, etc.) sem considerar interações conjuntas como defesa antiaérea de uma força contra ataque de outra, conforme o item 5.4.4.4.9.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Pág. 61</t>
+          <t>Pág. 65</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3093,18 +3089,18 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Quando uma LA é considerada "praticável"?</t>
+          <t>O que a Seção de Planejamento (D-5) utiliza para registrar ações e identificar interferências durante o Confronto?</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Se puder ser implementada com as forças, apoio e tecnologia disponíveis, considerando oposição e óbices, conforme o item 5.4.3.6.5.</t>
+          <t>Uma matriz de sincronização básica (rascunho) elaborada para cada LA confrontada, conforme o item 5.4.4.4.12.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Pág. 61</t>
+          <t>Pág. 65</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3121,18 +3117,18 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Quando uma LA é considerada "aceitável"?</t>
+          <t>Quando se justifica a combinação de duas ou mais LA durante o Confronto?</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Se os prováveis resultados compensarem os riscos e custos estimados (pessoal, material, tempo e posição), conforme o item 5.4.3.6.6.</t>
+          <t>Somente se a LA resultante mostrar-se mais aceitável ou eficiente, ou para tornar praticáveis LA que falharam isoladamente, conforme o item 5.4.4.4.14.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Pág. 62</t>
+          <t>Pág. 65</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3149,18 +3145,18 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Como são formados os partidos para a realização do Confronto?</t>
+          <t>O que as conclusões do Confronto proporcionam para a fase seguinte?</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Um partido responsável pelas próprias LA (Seção de Operações D-3) e um pelas Psb Ini (Seção de Inteligência D-2), conforme o item 5.4.4.3.1.</t>
+          <t>Base para relacionar vantagens/desvantagens, submeter à prova final de APA e determinar mérito relativo das LA, conforme o item 5.4.4.5.2.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Pág. 62</t>
+          <t>Pág. 66</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3177,18 +3173,18 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Qual o papel do partido responsável pelas Psb Ini durante o Confronto?</t>
+          <t>Qual análise é de fundamental importância para a verificação da praticabilidade e aceitabilidade na prova final de APA?</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Desafiar a LA proposta buscando identificar fraquezas e vulnerabilidades para torná-la mais forte, conforme o item 5.4.4.3.2.</t>
+          <t>A análise logística, conforme o item 5.4.4.6.2.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Pág. 62</t>
+          <t>Pág. 66</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3205,18 +3201,18 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Quem exerce a função de Árbitro no Confronto e qual sua responsabilidade?</t>
+          <t>O que o Comandante deve fazer se nenhuma LA satisfizer à prova final de APA?</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>O Comandante ou ChEMCj/delegado, que decide sobre aperfeiçoamentos na LA em função das conclusões, conforme o item 5.4.4.3.3.</t>
+          <t>Participar suas conclusões ao seu escalão superior, conforme o item 5.4.4.6.4.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pág. 63</t>
+          <t>Pág. 66</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3233,18 +3229,18 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>O que fazer se houver limitação de tempo para realizar o Confronto de todas as LA?</t>
+          <t>Qual o propósito da Fase 4 (Comparação das Linhas de Ação)?</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>O EMCj deve confrontar cada LA, no mínimo, contra a Psb Ini mais perigosa e a Psb Ini mais provável, conforme o item 5.4.4.3.7.</t>
+          <t>Selecionar a melhor LA para atingir o EFD Op baseando-se nas vantagens e desvantagens identificadas, conforme o item 5.5.1.1.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Pág. 63</t>
+          <t>Pág. 67</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3261,18 +3257,18 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Quem define o método do Confronto (sequencial, por fases, eventos críticos)?</t>
+          <t>O que os planejadores estabelecem ao responder quais são os aspectos críticos para atingir o EFD Op?</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>O Coordenador do Confronto (ChEMCj ou oficial indicado), conforme o item 5.4.4.4.4.</t>
+          <t>Estabelecem parâmetros ou valores críticos de juízo para identificar a melhor alternativa, conforme o item 5.5.1.2.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Pág. 63</t>
+          <t>Pág. 67</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3289,18 +3285,18 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Qual a dinâmica de movimentos observada no processo interativo entre LA e Psb Ini?</t>
+          <t>Cite um exemplo de questionamento para comparar LA relacionado à liberdade de ação.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Possui três movimentos: AÇÃO, REAÇÃO e CONTRARREAÇÃO, conforme o item 5.4.4.4.6.</t>
+          <t>"Qual permite maior liberdade de ação?", conforme a Tabela 1.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Pág. 64</t>
+          <t>Pág. 67</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3317,18 +3313,18 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>A que deve se restringir a análise de cada interação LA x Psb Ini no confronto?</t>
+          <t>Como devem ser identificadas e consolidadas as vantagens e desvantagens das LA?</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Apenas às ações que de fato se oponham (ex: defesa própria x ofensiva inimiga), conforme o item 5.4.4.4.8.</t>
+          <t>Sob o ponto de vista das atividades de cada seção do EM e consolidadas de forma tabular, conforme o item 5.5.1.4.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Pág. 64</t>
+          <t>Pág. 68</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3345,18 +3341,18 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Qual erro comum deve ser evitado ao analisar o confronto de ações entre Forças Componentes?</t>
+          <t>O que deve ser evitado ao discriminar vantagens e desvantagens entre LA diferentes?</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Limitar a análise a forças singulares (FNC x FNC, etc.) sem considerar interações conjuntas como defesa antiaérea de uma força contra ataque de outra, conforme o item 5.4.4.4.9.</t>
+          <t>Indicar como vantagem de uma LA o que já tenha sido apontado como desvantagem de outra e vice-versa, conforme o item 5.5.1.6.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Pág. 65</t>
+          <t>Pág. 68</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3373,18 +3369,18 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>O que a Seção de Planejamento (D-5) utiliza para registrar ações e identificar interferências durante o Confronto?</t>
+          <t>O que é a Matriz de Apoio à Decisão?</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Uma matriz de sincronização básica (rascunho) elaborada para cada LA confrontada, conforme o item 5.4.4.4.12.</t>
+          <t>Uma ferramenta que permite comparar numericamente as diferentes LA baseada em parâmetros, pesos e pontuações, conforme o item 5.5.1.7.2.1.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pág. 65</t>
+          <t>Pág. 68</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3401,18 +3397,18 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Quando se justifica a combinação de duas ou mais LA durante o Confronto?</t>
+          <t>Como é obtida a pontuação total de uma LA na Matriz de Apoio à Decisão?</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Somente se a LA resultante mostrar-se mais aceitável ou eficiente, ou para tornar praticáveis LA que falharam isoladamente, conforme o item 5.4.4.4.14.</t>
+          <t>Multiplicando o peso atribuído pelo Comandante pela pontuação obtida pela LA em cada parâmetro, conforme o item 5.5.1.7.2.1.e.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Pág. 65</t>
+          <t>Pág. 69</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3429,18 +3425,18 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>O que as conclusões do Confronto proporcionam para a fase seguinte?</t>
+          <t>O que ocorre na Fase 5 (Decisão) do Exame de Situação?</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Base para relacionar vantagens/desvantagens, submeter à prova final de APA e determinar mérito relativo das LA, conforme o item 5.4.4.5.2.</t>
+          <t>O Comandante avalia méritos e seleciona a LA que melhor atenda à missão, sob sua exclusiva responsabilidade, conforme o item 5.6.1.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pág. 66</t>
+          <t>Pág. 69</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3457,18 +3453,18 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Qual análise é de fundamental importância para a verificação da praticabilidade e aceitabilidade na prova final de APA?</t>
+          <t>Qual o objetivo da reunião formal organizada pelo Chefe do EMCj na Fase 5?</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>A análise logística, conforme o item 5.4.4.6.2.</t>
+          <t>Apresentar uma síntese do trabalho desenvolvido para possibilitar ao Comandante a avaliação do mérito de cada LA, conforme o item 5.6.2.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Pág. 66</t>
+          <t>Pág. 69</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3485,18 +3481,18 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>O que o Comandante deve fazer se nenhuma LA satisfizer à prova final de APA?</t>
+          <t>O que a Seção de Inteligência (D-2) apresenta na reunião de decisão?</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Participar suas conclusões ao seu escalão superior, conforme o item 5.4.4.6.4.</t>
+          <t>Características relevantes da área, Psb Ini (provável/perigosa), alvos (LIPA) e CG do inimigo, conforme a Tabela 4.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Pág. 66</t>
+          <t>Pág. 70</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3513,18 +3509,18 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Qual o propósito da Fase 4 (Comparação das Linhas de Ação)?</t>
+          <t>O que a Seção de Operações (D-3) deve indicar na reunião de decisão?</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Selecionar a melhor LA para atingir o EFD Op baseando-se nas vantagens e desvantagens identificadas, conforme o item 5.5.1.1.</t>
+          <t>A LA que a Seção considera melhor para o cumprimento da missão, considerando a manobra, conforme a Tabela 4.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Pág. 67</t>
+          <t>Pág. 70</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3541,18 +3537,18 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>O que os planejadores estabelecem ao responder quais são os aspectos críticos para atingir o EFD Op?</t>
+          <t>O que a Seção de Planejamento (D-5) apresenta na reunião de decisão?</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Estabelecem parâmetros ou valores críticos de juízo para identificar a melhor alternativa, conforme o item 5.5.1.2.</t>
+          <t>O Desenho Operacional, conclusões do confronto, comparação das LA (vantagens/desvantagens) e riscos, conforme a Tabela 4.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Pág. 67</t>
+          <t>Pág. 70</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3569,18 +3565,18 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cite um exemplo de questionamento para comparar LA relacionado à liberdade de ação.</t>
+          <t>Como pode ser feita a apresentação visual das LA durante a decisão?</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Qual permite maior liberdade de ação?", conforme a Tabela 1.</t>
+          <t>Acompanhada de representação gráfica (calco de operações) expondo o esquema de manobra, conforme o item 5.6.3.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Pág. 67</t>
+          <t>Pág. 72</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3597,18 +3593,18 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Como devem ser identificadas e consolidadas as vantagens e desvantagens das LA?</t>
+          <t>Quem mais o Comandante pode convocar para a reunião de decisão?</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sob o ponto de vista das atividades de cada seção do EM e consolidadas de forma tabular, conforme o item 5.5.1.4.</t>
+          <t>Os Comandantes das Forças Componentes, seus Chefes de EMCj e Oficiais de Operações/Planejamento, conforme o item 5.6.4.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Pág. 68</t>
+          <t>Pág. 72</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3625,18 +3621,18 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>O que deve ser evitado ao discriminar vantagens e desvantagens entre LA diferentes?</t>
+          <t>O que a Decisão do Comandante deve expressar necessariamente?</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Indicar como vantagem de uma LA o que já tenha sido apontado como desvantagem de outra e vice-versa, conforme o item 5.5.1.6.</t>
+          <t>Um plano geral para atingir o EFD Op, incluindo as informações "o que" e "como fazer", conforme o item 5.6.6.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Pág. 68</t>
+          <t>Pág. 72</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3653,18 +3649,18 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>O que é a Matriz de Apoio à Decisão?</t>
+          <t>O que é o Conceito Preliminar da Operação (CPO) desenvolvido na Fase 6?</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Uma ferramenta que permite comparar numericamente as diferentes LA baseada em parâmetros, pesos e pontuações, conforme o item 5.5.1.7.2.1.</t>
+          <t>O aprimoramento do Conceito Sumário da LA selecionada, estabelecendo "como", "quem", "onde", "quando" e "para quê", conforme o item 5.7.1 e 5.7.2.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Pág. 68</t>
+          <t>Pág. 73</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3681,18 +3677,18 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Como é obtida a pontuação total de uma LA na Matriz de Apoio à Decisão?</t>
+          <t>Por que o CPO deve ser apresentado ao escalão superior?</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Multiplicando o peso atribuído pelo Comandante pela pontuação obtida pela LA em cada parâmetro, conforme o item 5.5.1.7.2.1.e.</t>
+          <t>Para permitir intervenções no planejamento antes da elaboração final dos planos, caso julgue necessário, conforme o item 5.7.3.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Pág. 69</t>
+          <t>Pág. 73</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3709,18 +3705,18 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>O que ocorre na Fase 5 (Decisão) do Exame de Situação?</t>
+          <t>O que o CPO deve conter em relação aos riscos e à manobra?</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>O Comandante avalia méritos e seleciona a LA que melhor atenda à missão, sob sua exclusiva responsabilidade, conforme o item 5.6.1.</t>
+          <t>Riscos residuais e a Concepção da Manobra (PD, efeitos, ações, CG), indicando como explorar fraquezas do inimigo e proteger forças, conforme o item 5.7.6.b e e.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Pág. 69</t>
+          <t>Pág. 73</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3732,28 +3728,32 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>---</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Qual o objetivo da reunião formal organizada pelo Chefe do EMCj na Fase 5?</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Apresentar uma síntese do trabalho desenvolvido para possibilitar ao Comandante a avaliação do mérito de cada LA, conforme o item 5.6.2.</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Pág. 69</t>
+          <t>---</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>---</t>
         </is>
       </c>
     </row>
@@ -3765,23 +3765,23 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>O que a Seção de Inteligência (D-2) apresenta na reunião de decisão?</t>
+          <t>Qual é o objetivo principal da segunda etapa do processo de planejamento para operações conjuntas?</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Características relevantes da área, Psb Ini (provável/perigosa), alvos (LIPA) e CG do inimigo, conforme a Tabela 4.</t>
+          <t>O objetivo é aprofundar o Conceito Preliminar da Operação e escrever o plano de operação, conforme o item 6.1.1.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Pág. 70</t>
+          <t>Pág. 75</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -3793,23 +3793,23 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>O que a Seção de Operações (D-3) deve indicar na reunião de decisão?</t>
+          <t>Como se divide a etapa de elaboração do Plano de Ordens?</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>A LA que a Seção considera melhor para o cumprimento da missão, considerando a manobra, conforme a Tabela 4.</t>
+          <t>Divide-se em 1ª fase (Desenvolvimento do Conceito da Operação) e 2ª fase (Redação dos Planos e Ordens), conforme o item 6.1.2.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Pág. 70</t>
+          <t>Pág. 75</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -3821,23 +3821,23 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>O que a Seção de Planejamento (D-5) apresenta na reunião de decisão?</t>
+          <t>O que deve ser feito no Passo 1 do desenvolvimento do conceito caso as premissas básicas sejam consideradas falsas?</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>O Desenho Operacional, conclusões do confronto, comparação das LA (vantagens/desvantagens) e riscos, conforme a Tabela 4.</t>
+          <t>Deverá ser elaborado o respectivo Plano Contingente se o plano se tornar inadequado, conforme o item 6.2.4.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Pág. 70</t>
+          <t>Pág. 75</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -3849,23 +3849,23 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Como pode ser feita a apresentação visual das LA durante a decisão?</t>
+          <t>Quais elementos o Comandante deve observar ao determinar as ações das Forças Componentes no Passo 2?</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Acompanhada de representação gráfica (calco de operações) expondo o esquema de manobra, conforme o item 5.6.3.</t>
+          <t>Deve observar os requisitos, tipos de ações, meios disponíveis, ideia de tempo (início/término) e a área das ações, conforme o item 6.2.5.1.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Pág. 72</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -3877,23 +3877,23 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Quem mais o Comandante pode convocar para a reunião de decisão?</t>
+          <t>O que visa estabelecer o Passo 3 (Execução das Operações) em relação às Forças Componentes?</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Os Comandantes das Forças Componentes, seus Chefes de EMCj e Oficiais de Operações/Planejamento, conforme o item 5.6.4.</t>
+          <t>Visa estabelecer como será executada cada operação, sincronizando-as no tempo e espaço e definindo a interdependência entre elas, conforme o item 6.2.6.1.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Pág. 72</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -3905,23 +3905,23 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>O que a Decisão do Comandante deve expressar necessariamente?</t>
+          <t>O que ocorre no Passo 4 (Organização das Forças) em relação aos meios adjudicados?</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Um plano geral para atingir o EFD Op, incluindo as informações "o que" e "como fazer", conforme o item 5.6.6.</t>
+          <t>O Comandante estabelece formalmente a estrutura de comando e efetua a distribuição final dos meios para as Forças Componentes, conforme o item 6.2.7.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Pág. 72</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -3933,23 +3933,23 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>O que é o Conceito Preliminar da Operação (CPO) desenvolvido na Fase 6?</t>
+          <t>Quais elementos básicos devem compor a elaboração do Conceito da Operação quanto à sincronização de esforços?</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>O aprimoramento do Conceito Sumário da LA selecionada, estabelecendo "como", "quem", "onde", "quando" e "para quê", conforme o item 5.7.1 e 5.7.2.</t>
+          <t>Deve conter a elaboração da Matriz de Sincronização, de acordo com o faseamento estabelecido, conforme o item 6.2.8.2, alínea 'g'.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Pág. 73</t>
+          <t>Pág. 77</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -3961,23 +3961,23 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Por que o CPO deve ser apresentado ao escalão superior?</t>
+          <t>Quando o Comandante e seu Estado-Maior estarão aptos a iniciar a redação dos planos e ordens?</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Para permitir intervenções no planejamento antes da elaboração final dos planos, caso julgue necessário, conforme o item 5.7.3.</t>
+          <t>Após concluídos os procedimentos da fase anterior (desenvolvimento do conceito), conforme o item 6.3.1.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Pág. 73</t>
+          <t>Pág. 77</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -3989,55 +3989,51 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>O que o CPO deve conter em relação aos riscos e à manobra?</t>
+          <t>A quem compete a atribuição da redação do Plano Operacional?</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Riscos residuais e a Concepção da Manobra (PD, efeitos, ações, CG), indicando como explorar fraquezas do inimigo e proteger forças, conforme o item 5.7.6.b e e.</t>
+          <t>À Seção de Operações (D3), com apoio da Seção de Planejamento (D5), conforme o item 6.3.4.1.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Pág. 73</t>
+          <t>Pág. 77</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>O que deve conter o parágrafo "Situação" no corpo principal do plano operacional?</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>Informações para o entendimento do quadro da campanha, divididas em Hipóteses de Emprego, Forças Inimigas, Amigas, Centros de Gravidade e Premissas Básicas, conforme o item 6.3.5.1, alínea 'b'.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Pág. 78</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -4049,18 +4045,18 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Qual é o objetivo principal da segunda etapa do processo de planejamento para operações conjuntas?</t>
+          <t>Como deve ser apresentado o enunciado da "Missão" no plano operacional?</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>O objetivo é aprofundar o Conceito Preliminar da Operação e escrever o plano de operação, conforme o item 6.1.1.</t>
+          <t>De forma clara e concisa, contendo a finalidade (propósito), as ações a realizar (tarefas) e outros dados necessários, conforme o item 6.3.5.1, alínea 'c'.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Pág. 75</t>
+          <t>Pág. 78</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4077,18 +4073,18 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Como se divide a etapa de elaboração do Plano de Ordens?</t>
+          <t>O que deve constar no item "Execução" do plano operacional?</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Divide-se em 1ª fase (Desenvolvimento do Conceito da Operação) e 2ª fase (Redação dos Planos e Ordens), conforme o item 6.1.2.</t>
+          <t>A exposição do plano do Comandante, contendo a Intenção do Comandante e o Conceito da Operação, conforme o item 6.3.5.1, alínea 'd'.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Pág. 75</t>
+          <t>Pág. 78</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4105,18 +4101,18 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>O que deve ser feito no Passo 1 do desenvolvimento do conceito caso as premissas básicas sejam consideradas falsas?</t>
+          <t>Em qual anexo do plano operacional são tratados os assuntos de "Inteligência"?</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Deverá ser elaborado o respectivo Plano Contingente se o plano se tornar inadequado, conforme o item 6.2.4.</t>
+          <t>No Anexo "A", conforme a lista de anexos no item 6.3.5.1, alínea 'g'.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Pág. 75</t>
+          <t>Pág. 79</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4133,18 +4129,18 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Quais elementos o Comandante deve observar ao determinar as ações das Forças Componentes no Passo 2?</t>
+          <t>Qual anexo é responsável por detalhar a "Interdição" e quais são seus apêndices principais?</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Deve observar os requisitos, tipos de ações, meios disponíveis, ideia de tempo (início/término) e a área das ações, conforme o item 6.2.5.1.</t>
+          <t>O Anexo "K", que inclui apêndices como a Lista Priorizada Integrada de Alvos (LIPA), conforme o item 6.3.5.1, alínea 'g'.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Pág. 76</t>
+          <t>Pág. 79</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4161,18 +4157,18 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>O que visa estabelecer o Passo 3 (Execução das Operações) em relação às Forças Componentes?</t>
+          <t>Onde são encontradas as "Regras de Engajamento" na estrutura de anexos do plano?</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Visa estabelecer como será executada cada operação, sincronizando-as no tempo e espaço e definindo a interdependência entre elas, conforme o item 6.2.6.1.</t>
+          <t>No Anexo "M", conforme a lista apresentada no item 6.3.5.1, alínea 'g'.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pág. 76</t>
+          <t>Pág. 79</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4184,28 +4180,32 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>---</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>O que ocorre no Passo 4 (Organização das Forças) em relação aos meios adjudicados?</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>O Comandante estabelece formalmente a estrutura de comando e efetua a distribuição final dos meios para as Forças Componentes, conforme o item 6.2.7.</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Pág. 76</t>
+          <t>---</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>---</t>
         </is>
       </c>
     </row>
@@ -4217,23 +4217,23 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Quais elementos básicos devem compor a elaboração do Conceito da Operação quanto à sincronização de esforços?</t>
+          <t>O que compreende o controle da operação planejada?</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Deve conter a elaboração da Matriz de Sincronização, de acordo com o faseamento estabelecido, conforme o item 6.2.8.2, alínea 'g'.</t>
+          <t>Compreende o uso oportuno das informações recebidas enquanto a ação se desenrola, possibilitando a manutenção da consciência situacional, conforme o item 7.1.1.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pág. 77</t>
+          <t>Pág. 81</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -4245,23 +4245,23 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Quando o Comandante e seu Estado-Maior estarão aptos a iniciar a redação dos planos e ordens?</t>
+          <t>O que é necessário para que o exercício do comando seja efetivo, mesmo com o uso de sistemas de processamento automático?</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Após concluídos os procedimentos da fase anterior (desenvolvimento do conceito), conforme o item 6.3.1.</t>
+          <t>É necessária uma estrutura de comando e controle adequadamente projetada e estabelecida para o trâmite de informações e ordens, conforme o item 7.1.3.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Pág. 77</t>
+          <t>Pág. 81</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -4273,23 +4273,23 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A quem compete a atribuição da redação do Plano Operacional?</t>
+          <t>Em quais períodos se processa o Controle da Operação Planejada?</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>À Seção de Operações (D3), com apoio da Seção de Planejamento (D5), conforme o item 6.3.4.1.</t>
+          <t>Ocorre em dois períodos: o Planejamento do Controle (antes da ação) e o Controle da Operação em curso (durante a ação), conforme o item 7.1.5.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Pág. 77</t>
+          <t>Pág. 81</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -4301,23 +4301,23 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>O que deve conter o parágrafo "Situação" no corpo principal do plano operacional?</t>
+          <t>Quando são estabelecidas as medidas, indicadores e relatórios para avaliação contínua das ações?</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Informações para o entendimento do quadro da campanha, divididas em Hipóteses de Emprego, Forças Inimigas, Amigas, Centros de Gravidade e Premissas Básicas, conforme o item 6.3.5.1, alínea 'b'.</t>
+          <t>Durante a Elaboração dos Planos e Ordens, conforme o item 7.2.2.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Pág. 78</t>
+          <t>Pág. 82</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -4329,23 +4329,23 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Como deve ser apresentado o enunciado da "Missão" no plano operacional?</t>
+          <t>Qual é a responsabilidade da Seção de Planejamento (D-5) no controle da operação em curso?</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>De forma clara e concisa, contendo a finalidade (propósito), as ações a realizar (tarefas) e outros dados necessários, conforme o item 6.3.5.1, alínea 'c'.</t>
+          <t>Avaliar o desenvolvimento das operações em curso, atenta a novas Linhas de Ação (LA) ou alterações necessárias para operações futuras, conforme o item 7.3.2.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Pág. 78</t>
+          <t>Pág. 82</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -4357,23 +4357,23 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>O que deve constar no item "Execução" do plano operacional?</t>
+          <t>Como é definida a sincronização da campanha ou operação?</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>A exposição do plano do Comandante, contendo a Intenção do Comandante e o Conceito da Operação, conforme o item 6.3.5.1, alínea 'd'.</t>
+          <t>É o arranjo de ações militares no tempo, no espaço e em termos de propósito, destinados à produção de um poder relativo de combate máximo no local e momento decisivos, conforme o item 7.3.3.1.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Pág. 78</t>
+          <t>Pág. 82</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -4385,23 +4385,23 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Em qual anexo do plano operacional são tratados os assuntos de "Inteligência"?</t>
+          <t>O que é a consciência situacional no contexto do comando operacional?</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>No Anexo "A", conforme a lista de anexos no item 6.3.5.1, alínea 'g'.</t>
+          <t>É a percepção precisa dos fatores e condições que afetam a execução da tarefa durante um período de tempo, permitindo ao Comandante estar ciente do que se passa ao redor, conforme o item 7.3.3.3.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Pág. 79</t>
+          <t>Pág. 83</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -4413,23 +4413,23 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Qual anexo é responsável por detalhar a "Interdição" e quais são seus apêndices principais?</t>
+          <t>Qual é o objetivo da Avaliação da campanha/operação?</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>O Anexo "K", que inclui apêndices como a Lista Priorizada Integrada de Alvos (LIPA), conforme o item 6.3.5.1, alínea 'g'.</t>
+          <t>Verificar se a execução das ações planejadas está produzindo os efeitos esperados e conduzindo para a obtenção dos pontos decisivos e objetivos operacionais, conforme o item 7.3.3.4.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Pág. 79</t>
+          <t>Pág. 83</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -4441,55 +4441,51 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Onde são encontradas as "Regras de Engajamento" na estrutura de anexos do plano?</t>
+          <t>Quem define o que é considerado como operações correntes e operações futuras?</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>No Anexo "M", conforme a lista apresentada no item 6.3.5.1, alínea 'g'.</t>
+          <t>O Comandante Operacional (Cmt Op) definirá essa classificação, conforme o item 7.3.4.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Pág. 79</t>
+          <t>Pág. 83</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Qual é o objetivo principal das reuniões de coordenação na rotina de trabalho?</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>Viabilizar a tomada de decisões que resulte em ações a serem executadas pelas F Cte, com um grau de coordenação adequado, conforme o item 7.3.6.1.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Pág. 84</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -4501,18 +4497,18 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>O que compreende o controle da operação planejada?</t>
+          <t>Qual é o propósito da Reunião de Situação?</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Compreende o uso oportuno das informações recebidas enquanto a ação se desenrola, possibilitando a manutenção da consciência situacional, conforme o item 7.1.1.</t>
+          <t>Permitir que o EMCj proporcione ao Comandante a consciência situacional, conforme o item 7.3.6.5.1.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Pág. 81</t>
+          <t>Pág. 84</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -4529,18 +4525,18 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>O que é necessário para que o exercício do comando seja efetivo, mesmo com o uso de sistemas de processamento automático?</t>
+          <t>Quem deve participar da Reunião de Situação?</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>É necessária uma estrutura de comando e controle adequadamente projetada e estabelecida para o trâmite de informações e ordens, conforme o item 7.1.3.</t>
+          <t>Cmt Op, Sub Cmt, Chefe do EMCj, Chefes das seções do EMCj e outros assessores julgados necessários, conforme o item 7.3.6.5.1.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Pág. 81</t>
+          <t>Pág. 84</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -4557,18 +4553,18 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Em quais períodos se processa o Controle da Operação Planejada?</t>
+          <t>Qual é o propósito da Reunião de Coordenação de Comando?</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ocorre em dois períodos: o Planejamento do Controle (antes da ação) e o Controle da Operação em curso (durante a ação), conforme o item 7.1.5.</t>
+          <t>Permitir que o Cmt Op atualize os Cmt F Cte sobre as atividades em curso, realizando uma coordenação de alto nível, conforme o item 7.3.6.6.1.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Pág. 81</t>
+          <t>Pág. 85</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -4585,18 +4581,18 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Quando são estabelecidas as medidas, indicadores e relatórios para avaliação contínua das ações?</t>
+          <t>Qual é o produto resultante da Reunião de Coordenação de Fogos?</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Durante a Elaboração dos Planos e Ordens, conforme o item 7.2.2.</t>
+          <t>A Lista Preliminar Integrada e Priorizada de Alvos (LPIPA), conforme o item 7.3.6.7.1.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Pág. 82</t>
+          <t>Pág. 85</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -4613,18 +4609,18 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Qual é a responsabilidade da Seção de Planejamento (D-5) no controle da operação em curso?</t>
+          <t>O que a agenda da Reunião de Coordenação de Fogos deve incluir em relação aos danos?</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Avaliar o desenvolvimento das operações em curso, atenta a novas Linhas de Ação (LA) ou alterações necessárias para operações futuras, conforme o item 7.3.2.</t>
+          <t>A avaliação de danos produzidos nos alvos atacados e a designação de reengajamento de alvos que não obtiveram o dano desejado, conforme o item 7.3.6.7.3.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Pág. 82</t>
+          <t>Pág. 85</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4641,18 +4637,18 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Como é definida a sincronização da campanha ou operação?</t>
+          <t>Qual seção coordena a Reunião de Coordenação de Fogos?</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>É o arranjo de ações militares no tempo, no espaço e em termos de propósito, destinados à produção de um poder relativo de combate máximo no local e momento decisivos, conforme o item 7.3.3.1.</t>
+          <t>A Seção de Operações (D-3), conforme a lista de participantes no item 7.3.6.7.4.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Pág. 82</t>
+          <t>Pág. 86</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -4669,18 +4665,18 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>O que é a consciência situacional no contexto do comando operacional?</t>
+          <t>Qual é o propósito da Reunião de Coordenação de Operações de Informação?</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>É a percepção precisa dos fatores e condições que afetam a execução da tarefa durante um período de tempo, permitindo ao Comandante estar ciente do que se passa ao redor, conforme o item 7.3.3.3.</t>
+          <t>Coordenar as Op Info, assegurando que os efeitos desejados sejam bem compreendidos, coordenados e coerentes, conforme o item 7.3.6.8.1.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Pág. 83</t>
+          <t>Pág. 86</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -4697,18 +4693,18 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Qual é o objetivo da Avaliação da campanha/operação?</t>
+          <t>Qual é o produto da Reunião de Coordenação de Inteligência?</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Verificar se a execução das ações planejadas está produzindo os efeitos esperados e conduzindo para a obtenção dos pontos decisivos e objetivos operacionais, conforme o item 7.3.3.4.</t>
+          <t>A atualização do Plano de Obtenção de Conhecimento (POC), conforme o item 7.3.6.9.2.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Pág. 83</t>
+          <t>Pág. 86</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -4725,18 +4721,18 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Quem define o que é considerado como operações correntes e operações futuras?</t>
+          <t>Qual é o propósito da Reunião de Coordenação do Espaço Aéreo?</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>O Comandante Operacional (Cmt Op) definirá essa classificação, conforme o item 7.3.4.</t>
+          <t>Levantar as necessidades gerais e abrangentes de uso do espaço aéreo do ambiente operacional, conforme o item 7.3.6.10.1.</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Pág. 83</t>
+          <t>Pág. 87</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -4753,18 +4749,18 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Qual é o objetivo principal das reuniões de coordenação na rotina de trabalho?</t>
+          <t>Qual documento resulta da Reunião de Coordenação do Espaço Aéreo quando realizada pelo C Op?</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Viabilizar a tomada de decisões que resulte em ações a serem executadas pelas F Cte, com um grau de coordenação adequado, conforme o item 7.3.6.1.</t>
+          <t>Resulta em informações a serem inseridas na Ordem de Coordenação, conforme o item 7.3.6.10.3.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Pág. 84</t>
+          <t>Pág. 87</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -4781,18 +4777,18 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Qual é o propósito da Reunião de Situação?</t>
+          <t>Qual é o propósito da Reunião de Coordenação de Operações?</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Permitir que o EMCj proporcione ao Comandante a consciência situacional, conforme o item 7.3.6.5.1.</t>
+          <t>Elaborar a versão preliminar da Ordem de Coordenação (O Coor), caso necessária, conforme o item 7.3.6.11.1.</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Pág. 84</t>
+          <t>Pág. 87</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -4809,18 +4805,18 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Quem deve participar da Reunião de Situação?</t>
+          <t>Por que a Reunião de Coordenação de Operações é considerada a principal para a coordenação das atividades?</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Cmt Op, Sub Cmt, Chefe do EMCj, Chefes das seções do EMCj e outros assessores julgados necessários, conforme o item 7.3.6.5.1.</t>
+          <t>Visto que ela condensa todas as informações das demais reuniões, conforme o item 7.3.6.11.3.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Pág. 84</t>
+          <t>Pág. 88</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -4837,18 +4833,18 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Qual é o propósito da Reunião de Coordenação de Comando?</t>
+          <t>Qual é o propósito da Reunião de Aprovação da Ordem de Coordenação?</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Permitir que o Cmt Op atualize os Cmt F Cte sobre as atividades em curso, realizando uma coordenação de alto nível, conforme o item 7.3.6.6.1.</t>
+          <t>Aprovar a O Coor e ratificar as orientações do Cmt Op em relação à Campanha, conforme o item 7.3.6.12.1.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Pág. 85</t>
+          <t>Pág. 88</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -4865,18 +4861,18 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Qual é o produto resultante da Reunião de Coordenação de Fogos?</t>
+          <t>O que visa a Reunião de Controle da Operação Planejada?</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>A Lista Preliminar Integrada e Priorizada de Alvos (LPIPA), conforme o item 7.3.6.7.1.</t>
+          <t>Garantir a continuidade e a sincronização das ações planejadas, comparando o progresso das operações com o planejamento, conforme o item 7.3.6.13.1.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Pág. 85</t>
+          <t>Pág. 88</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -4893,18 +4889,18 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>O que a agenda da Reunião de Coordenação de Fogos deve incluir em relação aos danos?</t>
+          <t>Quais perguntas o Comandante deve responder para decidir sobre alterações no plano?</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>A avaliação de danos produzidos nos alvos atacados e a designação de reengajamento de alvos que não obtiveram o dano desejado, conforme o item 7.3.6.7.3.</t>
+          <t>Se a operação se desenvolve conforme o plano, se os resultados atendem aos efeitos desejados, se há alteração nos fatores básicos e se a situação foi bem avaliada, conforme o item 7.3.7.1.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Pág. 85</t>
+          <t>Pág. 89</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -4921,18 +4917,18 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Qual seção coordena a Reunião de Coordenação de Fogos?</t>
+          <t>O que deve ser feito se a operação segue o plano e os resultados atendem aos efeitos desejados?</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>A Seção de Operações (D-3), conforme a lista de participantes no item 7.3.6.7.4.</t>
+          <t>Mantém-se o planejado, conforme o item 7.3.7.2.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Pág. 86</t>
+          <t>Pág. 89</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -4949,18 +4945,18 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Qual é o propósito da Reunião de Coordenação de Operações de Informação?</t>
+          <t>Como o Comandante deve proceder após identificar fatores que interferiram na operação?</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Coordenar as Op Info, assegurando que os efeitos desejados sejam bem compreendidos, coordenados e coerentes, conforme o item 7.3.6.8.1.</t>
+          <t>Realizará tantos ajustes quantos se fizerem necessários no seu plano, por meio de um planejamento contínuo, conforme o item 7.3.7.3.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Pág. 86</t>
+          <t>Pág. 89</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -4977,18 +4973,18 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Qual é o produto da Reunião de Coordenação de Inteligência?</t>
+          <t>O que é apresentado na Figura 4?</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>A atualização do Plano de Obtenção de Conhecimento (POC), conforme o item 7.3.6.9.2.</t>
+          <t>O Fluxograma para o Controle da Operação Planejada, conforme a legenda da Figura 4.</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Pág. 86</t>
+          <t>Pág. 90</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5005,18 +5001,18 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Qual é o propósito da Reunião de Coordenação do Espaço Aéreo?</t>
+          <t>Qual recurso visual resume o processo de Controle da Operação Planejada?</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Levantar as necessidades gerais e abrangentes de uso do espaço aéreo do ambiente operacional, conforme o item 7.3.6.10.1.</t>
+          <t>O fluxograma apresentado na Figura 4, conforme o conteúdo da página.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Pág. 87</t>
+          <t>Pág. 90</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5033,18 +5029,18 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Qual documento resulta da Reunião de Coordenação do Espaço Aéreo quando realizada pelo C Op?</t>
+          <t>Onde se encontra a representação gráfica do fluxo de controle operacional?</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Resulta em informações a serem inseridas na Ordem de Coordenação, conforme o item 7.3.6.10.3.</t>
+          <t>Na Figura 4, intitulada "Fluxograma para o Controle da Operação Planejada", nesta página.</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Pág. 87</t>
+          <t>Pág. 90</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5061,18 +5057,18 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Qual é o propósito da Reunião de Coordenação de Operações?</t>
+          <t>A que assunto se refere o item 7.3.16?</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Elaborar a versão preliminar da Ordem de Coordenação (O Coor), caso necessária, conforme o item 7.3.6.11.1.</t>
+          <t>Refere-se à Rotina de Trabalho do EMCj, conforme o título do item apresentado.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Pág. 87</t>
+          <t>Pág. 91</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5089,18 +5085,18 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Por que a Reunião de Coordenação de Operações é considerada a principal para a coordenação das atividades?</t>
+          <t>O que a Figura 5 ilustra?</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Visto que ela condensa todas as informações das demais reuniões, conforme o item 7.3.6.11.3.</t>
+          <t>A Rotina de trabalho do EMCj, conforme a legenda da Figura 5.</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Pág. 88</t>
+          <t>Pág. 91</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5117,301 +5113,21 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Qual é o propósito da Reunião de Aprovação da Ordem de Coordenação?</t>
+          <t>Qual elemento gráfico detalha a rotina de trabalho do Estado-Maior Conjunto?</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Aprovar a O Coor e ratificar as orientações do Cmt Op em relação à Campanha, conforme o item 7.3.6.12.1.</t>
+          <t>A Figura 5, apresentada nesta página sob o item 7.3.16.</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Pág. 88</t>
+          <t>Pág. 91</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>O que visa a Reunião de Controle da Operação Planejada?</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Garantir a continuidade e a sincronização das ações planejadas, comparando o progresso das operações com o planejamento, conforme o item 7.3.6.13.1.</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Pág. 88</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Quais perguntas o Comandante deve responder para decidir sobre alterações no plano?</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Se a operação se desenvolve conforme o plano, se os resultados atendem aos efeitos desejados, se há alteração nos fatores básicos e se a situação foi bem avaliada, conforme o item 7.3.7.1.</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Pág. 89</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>O que deve ser feito se a operação segue o plano e os resultados atendem aos efeitos desejados?</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Mantém-se o planejado, conforme o item 7.3.7.2.</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Pág. 89</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Como o Comandante deve proceder após identificar fatores que interferiram na operação?</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Realizará tantos ajustes quantos se fizerem necessários no seu plano, por meio de um planejamento contínuo, conforme o item 7.3.7.3.</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Pág. 89</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>O que é apresentado na Figura 4?</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>O Fluxograma para o Controle da Operação Planejada, conforme a legenda da Figura 4.</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Pág. 90</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Qual recurso visual resume o processo de Controle da Operação Planejada?</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>O fluxograma apresentado na Figura 4, conforme o conteúdo da página.</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Pág. 90</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Onde se encontra a representação gráfica do fluxo de controle operacional?</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Na Figura 4, intitulada "Fluxograma para o Controle da Operação Planejada", nesta página.</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Pág. 90</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>A que assunto se refere o item 7.3.16?</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Refere-se à Rotina de Trabalho do EMCj, conforme o título do item apresentado.</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Pág. 91</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>O que a Figura 5 ilustra?</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>A Rotina de trabalho do EMCj, conforme a legenda da Figura 5.</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Pág. 91</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Qual elemento gráfico detalha a rotina de trabalho do Estado-Maior Conjunto?</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>A Figura 5, apresentada nesta página sob o item 7.3.16.</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Pág. 91</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
         <is>
           <t>176</t>
         </is>
